--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tyrobp</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H2">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I2">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J2">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>439.775406636564</v>
+        <v>0.9155216666666667</v>
       </c>
       <c r="N2">
-        <v>439.775406636564</v>
+        <v>2.746565</v>
       </c>
       <c r="O2">
-        <v>0.456206079781963</v>
+        <v>0.0009052932071410816</v>
       </c>
       <c r="P2">
-        <v>0.456206079781963</v>
+        <v>0.0009061307672178307</v>
       </c>
       <c r="Q2">
-        <v>14694.70592092694</v>
+        <v>36.97664357428945</v>
       </c>
       <c r="R2">
-        <v>14694.70592092694</v>
+        <v>332.789792168605</v>
       </c>
       <c r="S2">
-        <v>0.164803858385332</v>
+        <v>0.0003551279655329638</v>
       </c>
       <c r="T2">
-        <v>0.164803858385332</v>
+        <v>0.0004257440541143827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,433 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H3">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I3">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J3">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>524.208692055738</v>
+        <v>1.075999</v>
       </c>
       <c r="N3">
-        <v>524.208692055738</v>
+        <v>3.227997</v>
       </c>
       <c r="O3">
-        <v>0.543793920218037</v>
+        <v>0.001063977643628238</v>
       </c>
       <c r="P3">
-        <v>0.543793920218037</v>
+        <v>0.001064962015530984</v>
       </c>
       <c r="Q3">
-        <v>17515.96941235679</v>
+        <v>43.45809930872768</v>
       </c>
       <c r="R3">
-        <v>17515.96941235679</v>
+        <v>391.122893778549</v>
       </c>
       <c r="S3">
-        <v>0.1964448528639736</v>
+        <v>0.0004173766167400045</v>
       </c>
       <c r="T3">
-        <v>0.1964448528639736</v>
+        <v>0.0005003706555093599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.71710162142608</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H4">
-        <v>8.71710162142608</v>
+        <v>121.165817</v>
       </c>
       <c r="I4">
-        <v>0.09424285952162893</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J4">
-        <v>0.09424285952162893</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>439.775406636564</v>
+        <v>481.2993676666667</v>
       </c>
       <c r="N4">
-        <v>439.775406636564</v>
+        <v>1443.898103</v>
       </c>
       <c r="O4">
-        <v>0.456206079781963</v>
+        <v>0.4759221589329922</v>
       </c>
       <c r="P4">
-        <v>0.456206079781963</v>
+        <v>0.4763624730730059</v>
       </c>
       <c r="Q4">
-        <v>3833.566910254906</v>
+        <v>19439.01036830502</v>
       </c>
       <c r="R4">
-        <v>3833.566910254906</v>
+        <v>174951.0933147451</v>
       </c>
       <c r="S4">
-        <v>0.04299416548980458</v>
+        <v>0.1866945059575491</v>
       </c>
       <c r="T4">
-        <v>0.04299416548980458</v>
+        <v>0.2238181263138817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.71710162142608</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H5">
-        <v>8.71710162142608</v>
+        <v>121.165817</v>
       </c>
       <c r="I5">
-        <v>0.09424285952162893</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J5">
-        <v>0.09424285952162893</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>524.208692055738</v>
+        <v>525.2033083333333</v>
       </c>
       <c r="N5">
-        <v>524.208692055738</v>
+        <v>1575.609925</v>
       </c>
       <c r="O5">
-        <v>0.543793920218037</v>
+        <v>0.5193355927154715</v>
       </c>
       <c r="P5">
-        <v>0.543793920218037</v>
+        <v>0.519816072139665</v>
       </c>
       <c r="Q5">
-        <v>4569.580439484718</v>
+        <v>21212.22931510375</v>
       </c>
       <c r="R5">
-        <v>4569.580439484718</v>
+        <v>190910.0638359337</v>
       </c>
       <c r="S5">
-        <v>0.05124869403182435</v>
+        <v>0.203724706001422</v>
       </c>
       <c r="T5">
-        <v>0.05124869403182435</v>
+        <v>0.2442347285326794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.389610839068045</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H6">
-        <v>0.389610839068045</v>
+        <v>121.165817</v>
       </c>
       <c r="I6">
-        <v>0.004212184412780406</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J6">
-        <v>0.004212184412780406</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>439.775406636564</v>
+        <v>2.804308</v>
       </c>
       <c r="N6">
-        <v>439.775406636564</v>
+        <v>5.608616</v>
       </c>
       <c r="O6">
-        <v>0.456206079781963</v>
+        <v>0.002772977500767022</v>
       </c>
       <c r="P6">
-        <v>0.456206079781963</v>
+        <v>0.00185036200458034</v>
       </c>
       <c r="Q6">
-        <v>171.3412651811624</v>
+        <v>113.2620899798787</v>
       </c>
       <c r="R6">
-        <v>171.3412651811624</v>
+        <v>679.572539879272</v>
       </c>
       <c r="S6">
-        <v>0.001921624138273239</v>
+        <v>0.001087782224088431</v>
       </c>
       <c r="T6">
-        <v>0.001921624138273239</v>
+        <v>0.0008693895516074778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.389610839068045</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H7">
-        <v>0.389610839068045</v>
+        <v>28.57052</v>
       </c>
       <c r="I7">
-        <v>0.004212184412780406</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J7">
-        <v>0.004212184412780406</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>524.208692055738</v>
+        <v>0.9155216666666667</v>
       </c>
       <c r="N7">
-        <v>524.208692055738</v>
+        <v>2.746565</v>
       </c>
       <c r="O7">
-        <v>0.543793920218037</v>
+        <v>0.0009052932071410816</v>
       </c>
       <c r="P7">
-        <v>0.543793920218037</v>
+        <v>0.0009061307672178307</v>
       </c>
       <c r="Q7">
-        <v>204.2373883585985</v>
+        <v>8.718976695977778</v>
       </c>
       <c r="R7">
-        <v>204.2373883585985</v>
+        <v>78.4707902638</v>
       </c>
       <c r="S7">
-        <v>0.002290560274507167</v>
+        <v>8.373806155096408E-05</v>
       </c>
       <c r="T7">
-        <v>0.002290560274507167</v>
+        <v>0.0001003891139772206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.9753222222374</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H8">
-        <v>49.9753222222374</v>
+        <v>28.57052</v>
       </c>
       <c r="I8">
-        <v>0.540296244816285</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J8">
-        <v>0.540296244816285</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>439.775406636564</v>
+        <v>1.075999</v>
       </c>
       <c r="N8">
-        <v>439.775406636564</v>
+        <v>3.227997</v>
       </c>
       <c r="O8">
-        <v>0.456206079781963</v>
+        <v>0.001063977643628238</v>
       </c>
       <c r="P8">
-        <v>0.456206079781963</v>
+        <v>0.001064962015530984</v>
       </c>
       <c r="Q8">
-        <v>21977.91765207777</v>
+        <v>10.24728364982667</v>
       </c>
       <c r="R8">
-        <v>21977.91765207777</v>
+        <v>92.22555284844002</v>
       </c>
       <c r="S8">
-        <v>0.2464864317685531</v>
+        <v>9.841609846201617E-05</v>
       </c>
       <c r="T8">
-        <v>0.2464864317685531</v>
+        <v>0.0001179858327587828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.523506666666668</v>
+      </c>
+      <c r="H9">
+        <v>28.57052</v>
+      </c>
+      <c r="I9">
+        <v>0.09249827668033554</v>
+      </c>
+      <c r="J9">
+        <v>0.1107887709027403</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>481.2993676666667</v>
+      </c>
+      <c r="N9">
+        <v>1443.898103</v>
+      </c>
+      <c r="O9">
+        <v>0.4759221589329922</v>
+      </c>
+      <c r="P9">
+        <v>0.4763624730730059</v>
+      </c>
+      <c r="Q9">
+        <v>4583.657736635952</v>
+      </c>
+      <c r="R9">
+        <v>41252.91962972356</v>
+      </c>
+      <c r="S9">
+        <v>0.04402197953528654</v>
+      </c>
+      <c r="T9">
+        <v>0.05277561289594807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.523506666666668</v>
+      </c>
+      <c r="H10">
+        <v>28.57052</v>
+      </c>
+      <c r="I10">
+        <v>0.09249827668033554</v>
+      </c>
+      <c r="J10">
+        <v>0.1107887709027403</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>525.2033083333333</v>
+      </c>
+      <c r="N10">
+        <v>1575.609925</v>
+      </c>
+      <c r="O10">
+        <v>0.5193355927154715</v>
+      </c>
+      <c r="P10">
+        <v>0.519816072139665</v>
+      </c>
+      <c r="Q10">
+        <v>5001.777208267889</v>
+      </c>
+      <c r="R10">
+        <v>45015.994874411</v>
+      </c>
+      <c r="S10">
+        <v>0.04803764734494173</v>
+      </c>
+      <c r="T10">
+        <v>0.05758978372784369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>49.9753222222374</v>
-      </c>
-      <c r="H9">
-        <v>49.9753222222374</v>
-      </c>
-      <c r="I9">
-        <v>0.540296244816285</v>
-      </c>
-      <c r="J9">
-        <v>0.540296244816285</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>524.208692055738</v>
-      </c>
-      <c r="N9">
-        <v>524.208692055738</v>
-      </c>
-      <c r="O9">
-        <v>0.543793920218037</v>
-      </c>
-      <c r="P9">
-        <v>0.543793920218037</v>
-      </c>
-      <c r="Q9">
-        <v>26197.49829718312</v>
-      </c>
-      <c r="R9">
-        <v>26197.49829718312</v>
-      </c>
-      <c r="S9">
-        <v>0.2938098130477318</v>
-      </c>
-      <c r="T9">
-        <v>0.2938098130477318</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.523506666666668</v>
+      </c>
+      <c r="H11">
+        <v>28.57052</v>
+      </c>
+      <c r="I11">
+        <v>0.09249827668033554</v>
+      </c>
+      <c r="J11">
+        <v>0.1107887709027403</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>2.804308</v>
+      </c>
+      <c r="N11">
+        <v>5.608616</v>
+      </c>
+      <c r="O11">
+        <v>0.002772977500767022</v>
+      </c>
+      <c r="P11">
+        <v>0.00185036200458034</v>
+      </c>
+      <c r="Q11">
+        <v>26.70684593338667</v>
+      </c>
+      <c r="R11">
+        <v>160.24107560032</v>
+      </c>
+      <c r="S11">
+        <v>0.0002564956400942934</v>
+      </c>
+      <c r="T11">
+        <v>0.0002049993322125867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8589773333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.576932</v>
+      </c>
+      <c r="I12">
+        <v>0.008342927224370099</v>
+      </c>
+      <c r="J12">
+        <v>0.009992647280481435</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.9155216666666667</v>
+      </c>
+      <c r="N12">
+        <v>2.746565</v>
+      </c>
+      <c r="O12">
+        <v>0.0009052932071410816</v>
+      </c>
+      <c r="P12">
+        <v>0.0009061307672178307</v>
+      </c>
+      <c r="Q12">
+        <v>0.7864123598422221</v>
+      </c>
+      <c r="R12">
+        <v>7.077711238579999</v>
+      </c>
+      <c r="S12">
+        <v>7.552795343894649E-06</v>
+      </c>
+      <c r="T12">
+        <v>9.054645146799813E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8589773333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.576932</v>
+      </c>
+      <c r="I13">
+        <v>0.008342927224370099</v>
+      </c>
+      <c r="J13">
+        <v>0.009992647280481435</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.075999</v>
+      </c>
+      <c r="N13">
+        <v>3.227997</v>
+      </c>
+      <c r="O13">
+        <v>0.001063977643628238</v>
+      </c>
+      <c r="P13">
+        <v>0.001064962015530984</v>
+      </c>
+      <c r="Q13">
+        <v>0.9242587516893334</v>
+      </c>
+      <c r="R13">
+        <v>8.318328765203999</v>
+      </c>
+      <c r="S13">
+        <v>8.876688049147171E-06</v>
+      </c>
+      <c r="T13">
+        <v>1.064178978831171E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8589773333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.576932</v>
+      </c>
+      <c r="I14">
+        <v>0.008342927224370099</v>
+      </c>
+      <c r="J14">
+        <v>0.009992647280481435</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>481.2993676666667</v>
+      </c>
+      <c r="N14">
+        <v>1443.898103</v>
+      </c>
+      <c r="O14">
+        <v>0.4759221589329922</v>
+      </c>
+      <c r="P14">
+        <v>0.4763624730730059</v>
+      </c>
+      <c r="Q14">
+        <v>413.4252473733329</v>
+      </c>
+      <c r="R14">
+        <v>3720.827226359996</v>
+      </c>
+      <c r="S14">
+        <v>0.003970583936443054</v>
+      </c>
+      <c r="T14">
+        <v>0.004760122171076383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8589773333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.576932</v>
+      </c>
+      <c r="I15">
+        <v>0.008342927224370099</v>
+      </c>
+      <c r="J15">
+        <v>0.009992647280481435</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>525.2033083333333</v>
+      </c>
+      <c r="N15">
+        <v>1575.609925</v>
+      </c>
+      <c r="O15">
+        <v>0.5193355927154715</v>
+      </c>
+      <c r="P15">
+        <v>0.519816072139665</v>
+      </c>
+      <c r="Q15">
+        <v>451.1377372500111</v>
+      </c>
+      <c r="R15">
+        <v>4060.2396352501</v>
+      </c>
+      <c r="S15">
+        <v>0.004332779055050288</v>
+      </c>
+      <c r="T15">
+        <v>0.005194338659616965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8589773333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.576932</v>
+      </c>
+      <c r="I16">
+        <v>0.008342927224370099</v>
+      </c>
+      <c r="J16">
+        <v>0.009992647280481435</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>2.804308</v>
+      </c>
+      <c r="N16">
+        <v>5.608616</v>
+      </c>
+      <c r="O16">
+        <v>0.002772977500767022</v>
+      </c>
+      <c r="P16">
+        <v>0.00185036200458034</v>
+      </c>
+      <c r="Q16">
+        <v>2.408837007685333</v>
+      </c>
+      <c r="R16">
+        <v>14.453022046112</v>
+      </c>
+      <c r="S16">
+        <v>2.313474948371494E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.849001485297591E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.582691</v>
+      </c>
+      <c r="I17">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J17">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.9155216666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.746565</v>
+      </c>
+      <c r="O17">
+        <v>0.0009052932071410816</v>
+      </c>
+      <c r="P17">
+        <v>0.0009061307672178307</v>
+      </c>
+      <c r="Q17">
+        <v>1.093343745157222</v>
+      </c>
+      <c r="R17">
+        <v>9.840093706415001</v>
+      </c>
+      <c r="S17">
+        <v>1.050059990073982E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.258861144788973E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.582691</v>
+      </c>
+      <c r="I18">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J18">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.075999</v>
+      </c>
+      <c r="N18">
+        <v>3.227997</v>
+      </c>
+      <c r="O18">
+        <v>0.001063977643628238</v>
+      </c>
+      <c r="P18">
+        <v>0.001064962015530984</v>
+      </c>
+      <c r="Q18">
+        <v>1.284990644436333</v>
+      </c>
+      <c r="R18">
+        <v>11.564915799927</v>
+      </c>
+      <c r="S18">
+        <v>1.234119890764953E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.479520782794279E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.582691</v>
+      </c>
+      <c r="I19">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J19">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>481.2993676666667</v>
+      </c>
+      <c r="N19">
+        <v>1443.898103</v>
+      </c>
+      <c r="O19">
+        <v>0.4759221589329922</v>
+      </c>
+      <c r="P19">
+        <v>0.4763624730730059</v>
+      </c>
+      <c r="Q19">
+        <v>574.7823042816859</v>
+      </c>
+      <c r="R19">
+        <v>5173.040738535173</v>
+      </c>
+      <c r="S19">
+        <v>0.005520275790684078</v>
+      </c>
+      <c r="T19">
+        <v>0.006617965418263198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.582691</v>
+      </c>
+      <c r="I20">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J20">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>525.2033083333333</v>
+      </c>
+      <c r="N20">
+        <v>1575.609925</v>
+      </c>
+      <c r="O20">
+        <v>0.5193355927154715</v>
+      </c>
+      <c r="P20">
+        <v>0.519816072139665</v>
+      </c>
+      <c r="Q20">
+        <v>627.2137219786861</v>
+      </c>
+      <c r="R20">
+        <v>5644.923497808175</v>
+      </c>
+      <c r="S20">
+        <v>0.006023833196032016</v>
+      </c>
+      <c r="T20">
+        <v>0.007221653643465084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.582691</v>
+      </c>
+      <c r="I21">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J21">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>2.804308</v>
+      </c>
+      <c r="N21">
+        <v>5.608616</v>
+      </c>
+      <c r="O21">
+        <v>0.002772977500767022</v>
+      </c>
+      <c r="P21">
+        <v>0.00185036200458034</v>
+      </c>
+      <c r="Q21">
+        <v>3.348989677609333</v>
+      </c>
+      <c r="R21">
+        <v>20.093938065656</v>
+      </c>
+      <c r="S21">
+        <v>3.216408456356636E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.570654165636622E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50.993427</v>
+      </c>
+      <c r="H22">
+        <v>101.986854</v>
+      </c>
+      <c r="I22">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J22">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.9155216666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.746565</v>
+      </c>
+      <c r="O22">
+        <v>0.0009052932071410816</v>
+      </c>
+      <c r="P22">
+        <v>0.0009061307672178307</v>
+      </c>
+      <c r="Q22">
+        <v>46.68558727608499</v>
+      </c>
+      <c r="R22">
+        <v>280.11352365651</v>
+      </c>
+      <c r="S22">
+        <v>0.0004483737848125193</v>
+      </c>
+      <c r="T22">
+        <v>0.0003583543425315379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50.993427</v>
+      </c>
+      <c r="H23">
+        <v>101.986854</v>
+      </c>
+      <c r="I23">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J23">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>1.075999</v>
+      </c>
+      <c r="N23">
+        <v>3.227997</v>
+      </c>
+      <c r="O23">
+        <v>0.001063977643628238</v>
+      </c>
+      <c r="P23">
+        <v>0.001064962015530984</v>
+      </c>
+      <c r="Q23">
+        <v>54.86887645857301</v>
+      </c>
+      <c r="R23">
+        <v>329.213258751438</v>
+      </c>
+      <c r="S23">
+        <v>0.0005269670414694202</v>
+      </c>
+      <c r="T23">
+        <v>0.0004211685296465865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50.993427</v>
+      </c>
+      <c r="H24">
+        <v>101.986854</v>
+      </c>
+      <c r="I24">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J24">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>481.2993676666667</v>
+      </c>
+      <c r="N24">
+        <v>1443.898103</v>
+      </c>
+      <c r="O24">
+        <v>0.4759221589329922</v>
+      </c>
+      <c r="P24">
+        <v>0.4763624730730059</v>
+      </c>
+      <c r="Q24">
+        <v>24543.10417025633</v>
+      </c>
+      <c r="R24">
+        <v>147258.6250215379</v>
+      </c>
+      <c r="S24">
+        <v>0.2357148137130295</v>
+      </c>
+      <c r="T24">
+        <v>0.1883906462738365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50.993427</v>
+      </c>
+      <c r="H25">
+        <v>101.986854</v>
+      </c>
+      <c r="I25">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J25">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>525.2033083333333</v>
+      </c>
+      <c r="N25">
+        <v>1575.609925</v>
+      </c>
+      <c r="O25">
+        <v>0.5193355927154715</v>
+      </c>
+      <c r="P25">
+        <v>0.519816072139665</v>
+      </c>
+      <c r="Q25">
+        <v>26781.91656365432</v>
+      </c>
+      <c r="R25">
+        <v>160691.4993819259</v>
+      </c>
+      <c r="S25">
+        <v>0.2572166271180255</v>
+      </c>
+      <c r="T25">
+        <v>0.2055755675760599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.993427</v>
+      </c>
+      <c r="H26">
+        <v>101.986854</v>
+      </c>
+      <c r="I26">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J26">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>2.804308</v>
+      </c>
+      <c r="N26">
+        <v>5.608616</v>
+      </c>
+      <c r="O26">
+        <v>0.002772977500767022</v>
+      </c>
+      <c r="P26">
+        <v>0.00185036200458034</v>
+      </c>
+      <c r="Q26">
+        <v>143.001275283516</v>
+      </c>
+      <c r="R26">
+        <v>572.0051011340639</v>
+      </c>
+      <c r="S26">
+        <v>0.001373400802537016</v>
+      </c>
+      <c r="T26">
+        <v>0.0007317765642509331</v>
       </c>
     </row>
   </sheetData>
